--- a/hardware/Zirconia_v.2.0 部品リスト.xlsx
+++ b/hardware/Zirconia_v.2.0 部品リスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="295">
   <si>
     <t>大分類</t>
   </si>
@@ -100,7 +100,7 @@
   </si>
   <si>
     <t>DMMの3Dプリントサービス
-材質は高精細プラスティック</t>
+材質は高精細アクリル｜MJT｜3500HDMax</t>
   </si>
   <si>
     <t>DMM.make</t>
@@ -384,6 +384,10 @@
   </si>
   <si>
     <t>https://www.digikey.jp/product-detail/ja/jst-sales-america-inc/ASZHSZH28K305/455-3080-ND/6009456</t>
+  </si>
+  <si>
+    <t>DMMの3Dプリントサービス
+材質は高精細プラスティック</t>
   </si>
   <si>
     <t>ベアリング外径6内径3厚2.5　673ZZ</t>
@@ -2693,8 +2697,7 @@
         <v>29</v>
       </c>
       <c r="G10" s="8">
-        <f>20*155</f>
-        <v>3100</v>
+        <v>3621.0</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -3211,7 +3214,7 @@
       <c r="F41" s="32"/>
       <c r="G41" s="33">
         <f>sum(G2:G40)</f>
-        <v>17953.3</v>
+        <v>18474.3</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -9893,7 +9896,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
@@ -9923,7 +9926,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -9932,7 +9935,7 @@
         <v>4.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G12" s="8">
         <f>107*4</f>
@@ -13322,129 +13325,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="28">
         <v>9.0</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="28">
         <v>10.0</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="28">
         <v>1.0</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="39">
         <v>2.0</v>
@@ -13454,19 +13457,19 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -13488,10 +13491,10 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="39">
         <v>2.0</v>
@@ -13500,22 +13503,22 @@
         <v>81</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -13537,218 +13540,218 @@
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="28">
         <v>1.0</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="28">
         <v>2.0</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="28">
         <v>1.0</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="28">
         <v>2.0</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" s="28">
         <v>2.0</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="I11" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" s="28">
         <v>2.0</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" s="39">
         <v>1.0</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G13" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>189</v>
-      </c>
       <c r="I13" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
@@ -13770,32 +13773,32 @@
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" s="39">
         <v>2.0</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -13817,34 +13820,34 @@
     </row>
     <row r="15">
       <c r="A15" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="39">
         <v>2.0</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -13866,196 +13869,196 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="28">
         <v>4.0</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" s="28">
         <v>1.0</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E17" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>207</v>
-      </c>
       <c r="I17" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="28">
         <v>16.0</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="28">
         <v>3.0</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="28">
         <v>4.0</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="28">
         <v>5.0</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="28">
         <v>1.0</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -14064,36 +14067,36 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="28">
         <v>1.0</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>234</v>
-      </c>
       <c r="I23" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="39">
         <v>1.0</v>
@@ -14104,16 +14107,16 @@
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>84</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
@@ -14135,205 +14138,205 @@
     </row>
     <row r="25">
       <c r="A25" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="28">
         <v>2.0</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="28">
         <v>1.0</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E26" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>248</v>
-      </c>
       <c r="I26" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C27" s="28">
         <v>1.0</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="28">
         <v>1.0</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="28">
         <v>1.0</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G29" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H29" s="28" t="s">
-        <v>265</v>
-      </c>
       <c r="I29" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="28">
         <v>1.0</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" s="28">
         <v>1.0</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>71</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J31" s="37" t="s">
         <v>72</v>
@@ -14399,129 +14402,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="28">
         <v>9.0</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="28">
         <v>10.0</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="28">
         <v>1.0</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="39">
         <v>2.0</v>
@@ -14531,19 +14534,19 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
@@ -14565,10 +14568,10 @@
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="39">
         <v>2.0</v>
@@ -14577,22 +14580,22 @@
         <v>81</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -14614,156 +14617,156 @@
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="28">
         <v>1.0</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="28">
         <v>2.0</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="28">
         <v>1.0</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="28">
         <v>2.0</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="41" t="s">
         <v>280</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C11" s="28">
         <v>2.0</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>281</v>
-      </c>
       <c r="I11" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>79</v>
@@ -14771,39 +14774,39 @@
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" s="28">
         <v>2.0</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C13" s="39">
         <v>1.0</v>
@@ -14813,19 +14816,19 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H13" s="42">
         <v>5.3047021E8</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
@@ -14847,32 +14850,32 @@
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14" s="39">
         <v>2.0</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
@@ -14894,34 +14897,34 @@
     </row>
     <row r="15">
       <c r="A15" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C15" s="39">
         <v>2.0</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>74</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -14943,193 +14946,193 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="28">
         <v>4.0</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" s="28">
         <v>1.0</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E17" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>207</v>
-      </c>
       <c r="I17" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C18" s="28">
         <v>16.0</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="28">
         <v>3.0</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="28">
         <v>4.0</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="28">
         <v>5.0</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="28">
         <v>1.0</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" s="28"/>
       <c r="G22" s="28"/>
@@ -15139,36 +15142,36 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="28">
         <v>1.0</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J23" s="37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="39">
         <v>1.0</v>
@@ -15179,16 +15182,16 @@
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>84</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
@@ -15210,34 +15213,34 @@
     </row>
     <row r="25">
       <c r="A25" s="39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="39">
         <v>2.0</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
@@ -15259,175 +15262,175 @@
     </row>
     <row r="26">
       <c r="A26" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="28">
         <v>1.0</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E26" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>248</v>
-      </c>
       <c r="I26" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C27" s="28">
         <v>1.0</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="28">
         <v>1.0</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="28">
         <v>1.0</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G29" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="H29" s="28" t="s">
-        <v>265</v>
-      </c>
       <c r="I29" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="28">
         <v>1.0</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" s="39">
         <v>1.0</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>71</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J31" s="40" t="s">
         <v>72</v>

--- a/hardware/Zirconia_v.2.0 部品リスト.xlsx
+++ b/hardware/Zirconia_v.2.0 部品リスト.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="297">
   <si>
     <t>大分類</t>
   </si>
@@ -112,7 +112,7 @@
     <t>平ギヤ</t>
   </si>
   <si>
-    <t>Gearwheel Pinion M0.3 / 38teeth OD 12mm　drill3mm、width1.5、Polyaceetal POM black</t>
+    <t>Gearwheel Pinion M0.3 / 38teeth OD 12mm　drill3mm、width1.5、Polyaceetal POM white</t>
   </si>
   <si>
     <t>kkpmo</t>
@@ -193,7 +193,7 @@
     <t>https://jp.banggood.com/1S-3_7V-50mAh-Mini-LiPo-Battery-Molex-2P-1_25mm-Connector-1cm-4g-For-Tygzs-M1-KFPLAN-KF606-Vapor-RC-Airplane-p-1381041.html?rmmds=search&amp;cur_warehouse=CN</t>
   </si>
   <si>
-    <t>100mAh ミニrcクワッドコプター用</t>
+    <t>100mAh ミニrcクワッドコプター用　※コネクタがついてない場合あり</t>
   </si>
   <si>
     <t>Aliexpress</t>
@@ -232,7 +232,7 @@
     <t>ST-LINK(U12)</t>
   </si>
   <si>
-    <t>STLINK-V3MODS</t>
+    <t>STLINK-V3MODS or AE-FT234X</t>
   </si>
   <si>
     <t>https://www.digikey.jp/short/mr74wj20</t>
@@ -359,6 +359,9 @@
     <t>https://www.monotaro.com/p/4220/4741/</t>
   </si>
   <si>
+    <t>100mAh ミニrcクワッドコプター用</t>
+  </si>
+  <si>
     <t>バッテリーコネクタ(P6)</t>
   </si>
   <si>
@@ -394,6 +397,9 @@
   </si>
   <si>
     <t>https://amzn.asia/d/dtuukSN</t>
+  </si>
+  <si>
+    <t>STLINK-V3MODS</t>
   </si>
   <si>
     <t>品名（Name）</t>
@@ -944,17 +950,19 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1051,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1123,17 +1131,17 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1142,22 +1150,25 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1166,7 +1177,7 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2718,8 +2729,8 @@
         <v>33</v>
       </c>
       <c r="G11" s="12">
-        <f>(10.34+4.79)*170</f>
-        <v>2572.1</v>
+        <f>(8.34+4.79)*170</f>
+        <v>2232.1</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -3214,14 +3225,14 @@
       <c r="F41" s="32"/>
       <c r="G41" s="33">
         <f>sum(G2:G40)</f>
-        <v>18474.3</v>
+        <v>18134.3</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="35" t="s">
         <v>101</v>
       </c>
       <c r="F42" s="32"/>
@@ -6504,7 +6515,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>59</v>
@@ -6550,10 +6561,10 @@
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>65</v>
@@ -6562,7 +6573,7 @@
         <v>1.0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" s="8">
         <v>31.0</v>
@@ -6571,10 +6582,10 @@
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
@@ -6583,7 +6594,7 @@
         <v>1.0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G25" s="8">
         <v>16.0</v>
@@ -6592,10 +6603,10 @@
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>65</v>
@@ -6604,7 +6615,7 @@
         <v>2.0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="8">
         <f>94*2</f>
@@ -6613,11 +6624,11 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
@@ -6654,10 +6665,10 @@
       <c r="E29" s="1">
         <v>1.0</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="34">
         <v>240.0</v>
       </c>
     </row>
@@ -9896,7 +9907,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>28</v>
@@ -9926,7 +9937,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -9935,7 +9946,7 @@
         <v>4.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G12" s="8">
         <f>107*4</f>
@@ -10069,7 +10080,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>59</v>
@@ -10103,11 +10114,11 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="6"/>
@@ -10159,7 +10170,7 @@
         <v>70</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
@@ -10276,10 +10287,10 @@
       <c r="E30" s="1">
         <v>1.0</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="34">
         <v>240.0</v>
       </c>
     </row>
@@ -10389,10 +10400,10 @@
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>101</v>
       </c>
       <c r="F40" s="32"/>
@@ -13324,1021 +13335,1021 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="G1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="34" t="s">
         <v>133</v>
       </c>
+      <c r="I1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="A2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="34">
         <v>9.0</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="B3" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="G4" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="28">
-        <v>10.0</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>151</v>
+      <c r="J4" s="38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="A5" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="40">
         <v>2.0</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="39" t="s">
+      <c r="B6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="E6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="H6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="39" t="s">
+      <c r="J6" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="28">
+        <v>154</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="34">
         <v>1.0</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="37" t="s">
+      <c r="E7" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>164</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="28">
+        <v>154</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="34">
         <v>2.0</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>168</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="28">
+        <v>154</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="34">
         <v>1.0</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="D9" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="B10" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="34">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="H19" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="34">
         <v>1.0</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="28">
-        <v>16.0</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="D22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="28">
+        <v>235</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="34">
         <v>1.0</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I23" s="28" t="s">
+      <c r="B24" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="39">
+      <c r="G25" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="34">
         <v>1.0</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="39" t="s">
+      <c r="D26" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="J24" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>252</v>
+      <c r="I26" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="28">
+        <v>243</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="34">
         <v>1.0</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="28" t="s">
+      <c r="D27" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="E27" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="F27" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="G27" s="34" t="s">
         <v>258</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="28">
+        <v>243</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="34">
         <v>1.0</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" s="28" t="s">
+      <c r="D28" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="E28" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="I28" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="37" t="s">
+      <c r="G28" s="34" t="s">
         <v>264</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="28">
+        <v>243</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="34">
         <v>1.0</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" s="37" t="s">
+      <c r="D29" s="34" t="s">
         <v>268</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="28">
+        <v>243</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="34">
         <v>1.0</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="37" t="s">
+      <c r="D30" s="34" t="s">
         <v>272</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="28">
+        <v>243</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="34">
         <v>1.0</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="37" t="s">
+      <c r="D31" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="38" t="s">
         <v>72</v>
       </c>
     </row>
@@ -14401,1057 +14412,1057 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="G1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="34" t="s">
         <v>133</v>
       </c>
+      <c r="I1" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="A2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="34">
         <v>9.0</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="B3" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="G4" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="28">
-        <v>10.0</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>151</v>
+      <c r="J4" s="38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="A5" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="40">
         <v>2.0</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="39" t="s">
+      <c r="B6" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="E6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="G6" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="H6" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="39" t="s">
+      <c r="J6" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
     </row>
     <row r="7">
       <c r="A7" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="28">
+        <v>154</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="34">
         <v>1.0</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>276</v>
+      <c r="D7" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="28">
+        <v>154</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="34">
         <v>2.0</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>278</v>
+      <c r="D8" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="28">
+        <v>154</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="34">
         <v>1.0</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="D9" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="I9" s="28" t="s">
+      <c r="B10" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" s="43">
+        <v>5.3047021E8</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="34">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="H19" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="34">
         <v>1.0</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="H13" s="42">
-        <v>5.3047021E8</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="28">
-        <v>16.0</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="D22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="28">
+        <v>235</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="34">
         <v>1.0</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>290</v>
+      <c r="D23" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="39">
+      <c r="A24" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="40">
         <v>1.0</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="39" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="J24" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="39">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="G25" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="E25" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="I25" s="39" t="s">
+      <c r="B26" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>252</v>
+      <c r="I26" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="28">
+        <v>243</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="34">
         <v>1.0</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="28" t="s">
+      <c r="D27" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="E27" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="F27" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="G27" s="34" t="s">
         <v>258</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="28">
+        <v>243</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="34">
         <v>1.0</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="H28" s="28" t="s">
+      <c r="D28" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="I28" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="37" t="s">
+      <c r="E28" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="34" t="s">
         <v>294</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="28">
+        <v>243</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="34">
         <v>1.0</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J29" s="37" t="s">
+      <c r="D29" s="34" t="s">
         <v>268</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="28">
+        <v>243</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="34">
         <v>1.0</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="37" t="s">
+      <c r="D30" s="34" t="s">
         <v>272</v>
       </c>
+      <c r="E30" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="39">
+      <c r="A31" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="40">
         <v>1.0</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="40" t="s">
+      <c r="D31" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
